--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="14.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26183882207702164</v>
+        <v>0.1870989194238093</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.25792185106243093</v>
+        <v>0.26142233486996241</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.016187630498807167</v>
+        <v>0.032614750438115861</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0086569558400740373</v>
+        <v>-0.00072713620633531979</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.010860364918520752</v>
+        <v>-0.013973723395611778</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0019274438758436407</v>
+        <v>0.015236237868631802</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00037098714841983407</v>
+        <v>-0.0016667751737385033</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0025542594126654952</v>
+        <v>0.010709418967483071</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00041052193043861207</v>
+        <v>0.032130642947607979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.39390735476978722</v>
+        <v>0.59316401630507554</v>
       </c>
       <c r="C4" s="0">
-        <v>0.14470516309129131</v>
+        <v>0.12906820827666571</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00071707828601177916</v>
+        <v>0.00036253763538482051</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0016149379480724592</v>
+        <v>0.00015911557385103005</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00025731340211169795</v>
+        <v>-0.0067252346047485066</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0027115367115919269</v>
+        <v>0.18630175941768695</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0063036132833652544</v>
+        <v>0.021246882872129395</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00093603687097121302</v>
+        <v>0.0013284122641437079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36938818465771212</v>
+        <v>0.47950293674006661</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.027260828572154061</v>
+        <v>-0.047544948711517931</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0049862916998299235</v>
+        <v>0.0090004095035760741</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010018212998446479</v>
+        <v>-0.079461724000078782</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0052111075616460218</v>
+        <v>-0.013995479247274206</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0014230544863862464</v>
+        <v>-0.0045854681692314679</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.033429067416785939</v>
+        <v>0.01825037813366669</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.014532059130556219</v>
+        <v>0.0046757529258506514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30724023421057883</v>
+        <v>0.12895657549026832</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.061321886598320392</v>
+        <v>-0.27604803347619739</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00056999861413953594</v>
+        <v>0.0020961709841476033</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0042417494012798552</v>
+        <v>-0.004102025004714991</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.001713301763629697</v>
+        <v>-0.0077309319767963893</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00400129872206712</v>
+        <v>-0.066170965371753321</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0033498149057948345</v>
+        <v>0.0014094235955162127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.23949212351524229</v>
+        <v>0.14425854688922357</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0052766382191333176</v>
+        <v>0.16852345041549277</v>
       </c>
       <c r="E7" s="0">
-        <v>0.012158918336630747</v>
+        <v>-0.0060927282445517005</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.016079134763949038</v>
+        <v>-0.12715867628718663</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0025627402702609516</v>
+        <v>0.0052931668063104153</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.0018204493221299113</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00019937613942795559</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.054367442595922022</v>
+        <v>-0.0252632412911096</v>
       </c>
     </row>
     <row r="8">
